--- a/TestDataXls/guest_checkout.xlsx
+++ b/TestDataXls/guest_checkout.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\TestDataXls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F60B24-6FC3-4DF0-AAAE-7F3C34A1D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guestckt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>key</t>
   </si>
@@ -208,17 +221,56 @@
   </si>
   <si>
     <t>thala@nkt6.com</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Clarinet</t>
+  </si>
+  <si>
+    <t>ycs</t>
+  </si>
+  <si>
+    <t>ycs-acadamy/php-variable</t>
+  </si>
+  <si>
+    <t>rambai</t>
+  </si>
+  <si>
+    <t>rai</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>rambai3@nkt12.com</t>
+  </si>
+  <si>
+    <t>rai3@nkt6.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +297,12 @@
       <color rgb="FF3C4257"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -289,20 +347,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -579,42 +635,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="35.5546875" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -681,19 +737,19 @@
       <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -705,16 +761,16 @@
       <c r="AD1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>49</v>
       </c>
       <c r="AI1" s="2" t="s">
@@ -735,13 +791,13 @@
       <c r="AN1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AR1" s="2" t="s">
@@ -751,12 +807,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -803,69 +859,67 @@
       <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="8">
         <v>3</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <v>2</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="8">
         <v>0</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="8">
         <v>1</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="2">
         <v>8</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="6">
         <f t="shared" ref="X2" si="0">W2+AA2</f>
         <v>10</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="5">
         <f t="shared" ref="Y2" si="1">(((V2+1)*X2)*R2)</f>
         <v>60</v>
       </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="7">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6">
         <f t="shared" ref="AA2" si="2">W2*AB2</f>
         <v>2</v>
       </c>
       <c r="AB2" s="2">
         <v>0.25</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="2">
         <v>0.01</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="2">
         <f t="shared" ref="AD2" si="3">Y2*AC2</f>
         <v>0.6</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AE2" s="6">
         <f t="shared" ref="AE2" si="4">AC2*Y2</f>
         <v>0.6</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AF2" s="5">
         <f t="shared" ref="AF2" si="5">Y2+AE2</f>
         <v>60.6</v>
       </c>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
       <c r="AI2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AO2" s="11" t="s">
+      <c r="AO2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="AR2" s="2">
@@ -875,14 +929,168 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3">
+        <v>94589184002</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8">
+        <v>2</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>4</v>
+      </c>
+      <c r="X3" s="6">
+        <f t="shared" ref="X3" si="6">W3+AA3</f>
+        <v>5</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3" si="7">(((V3+1)*X3)*R3)</f>
+        <v>5</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="6">
+        <f t="shared" ref="AA3" si="8">W3*AB3</f>
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" ref="AD3" si="9">Y3*AC3</f>
+        <v>0.05</v>
+      </c>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3" si="10">AC3*Y3</f>
+        <v>0.05</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" ref="AF3" si="11">Y3+AE3</f>
+        <v>5.05</v>
+      </c>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="T4" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="T5" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="T6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="T7" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="T8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3"/>
-    <hyperlink ref="O2" r:id="rId4"/>
-    <hyperlink ref="P2" r:id="rId5"/>
-    <hyperlink ref="Q2" r:id="rId6"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="P2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H3" r:id="rId7" xr:uid="{F8325CF3-48F8-4495-9768-B1DDEC783602}"/>
+    <hyperlink ref="I3" r:id="rId8" xr:uid="{EA08B53E-9411-4B0F-A903-E6B45F25ADFE}"/>
+    <hyperlink ref="J3" r:id="rId9" xr:uid="{089E5A49-6AD6-4E0D-9320-A17D7A36F52F}"/>
+    <hyperlink ref="O3" r:id="rId10" xr:uid="{03B95D05-5AB9-4780-9EBB-C7AD783176E1}"/>
+    <hyperlink ref="P3" r:id="rId11" xr:uid="{8E8FA9F8-0B03-49D7-9D69-9EF2747513BD}"/>
+    <hyperlink ref="Q3" r:id="rId12" xr:uid="{B23CDB1B-37ED-4273-95E8-A2B25E7802BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestDataXls/guest_checkout.xlsx
+++ b/TestDataXls/guest_checkout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\TestDataXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F60B24-6FC3-4DF0-AAAE-7F3C34A1D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96910899-6424-45A0-BBA9-5BBD825896DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>key</t>
   </si>
@@ -241,9 +241,6 @@
     <t>rai</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
@@ -260,6 +257,27 @@
   </si>
   <si>
     <t>rai3@nkt6.com</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>mgs</t>
+  </si>
+  <si>
+    <t>gms-academy/paint-sess-1</t>
+  </si>
+  <si>
+    <t>sri3@nkt12.com</t>
+  </si>
+  <si>
+    <t>ranku</t>
+  </si>
+  <si>
+    <t>sakasuki</t>
+  </si>
+  <si>
+    <t>rai17@nkt6.com</t>
   </si>
 </sst>
 </file>
@@ -646,7 +664,7 @@
   <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -952,7 +970,7 @@
         <v>94589184002</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>35</v>
@@ -973,7 +991,7 @@
         <v>13</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>35</v>
@@ -988,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U3" s="8">
         <v>0</v>
@@ -1051,29 +1069,146 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>94589184002</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
       <c r="T4" s="8" t="s">
         <v>69</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>4</v>
+      </c>
+      <c r="X4" s="6">
+        <f t="shared" ref="X4" si="12">W4+AA4</f>
+        <v>5</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" ref="Y4" si="13">(((V4+1)*X4)*R4)</f>
+        <v>10</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="6">
+        <f t="shared" ref="AA4" si="14">W4*AB4</f>
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" ref="AD4" si="15">Y4*AC4</f>
+        <v>0.1</v>
+      </c>
+      <c r="AE4" s="6">
+        <f t="shared" ref="AE4" si="16">AC4*Y4</f>
+        <v>0.1</v>
+      </c>
+      <c r="AF4" s="5">
+        <f t="shared" ref="AF4" si="17">Y4+AE4</f>
+        <v>10.1</v>
+      </c>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="T5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="T6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="T7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="T8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1091,6 +1226,12 @@
     <hyperlink ref="O3" r:id="rId10" xr:uid="{03B95D05-5AB9-4780-9EBB-C7AD783176E1}"/>
     <hyperlink ref="P3" r:id="rId11" xr:uid="{8E8FA9F8-0B03-49D7-9D69-9EF2747513BD}"/>
     <hyperlink ref="Q3" r:id="rId12" xr:uid="{B23CDB1B-37ED-4273-95E8-A2B25E7802BE}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{242D0990-DFE3-462B-B8AB-810D38DA7DF7}"/>
+    <hyperlink ref="I4" r:id="rId14" xr:uid="{ACD3F030-98B8-4ACD-87A7-F0DB83527232}"/>
+    <hyperlink ref="J4" r:id="rId15" xr:uid="{5A2F8187-974A-44F3-8969-F55FD21373BA}"/>
+    <hyperlink ref="O4" r:id="rId16" xr:uid="{292A5C9E-164D-46E3-A8EF-2065F18101F2}"/>
+    <hyperlink ref="P4" r:id="rId17" xr:uid="{8C199D36-63D2-4DD2-B43A-A0699FFBEB72}"/>
+    <hyperlink ref="Q4" r:id="rId18" xr:uid="{F940FB5D-85FB-4F90-AB50-ECD854D8AE42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
